--- a/main/experiment/results_summary_excel/synt1_results_summary2.xlsx
+++ b/main/experiment/results_summary_excel/synt1_results_summary2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\workspace-VisualStudio\AG_IA_2324\main\experiment\results_summary_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EB24B-AC86-4FB2-AF62-25EE641C3166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D51957-FEBD-43DF-93E5-D8564A6E5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31155" yWindow="3345" windowWidth="28800" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
